--- a/scimagojr/scimagojr_2001.xlsx
+++ b/scimagojr/scimagojr_2001.xlsx
@@ -128,12 +128,12 @@
     <t>Middle East</t>
   </si>
   <si>
+    <t>Denmark</t>
+  </si>
+  <si>
     <t>Finland</t>
   </si>
   <si>
-    <t>Denmark</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -215,12 +215,12 @@
     <t>Saudi Arabia</t>
   </si>
   <si>
+    <t>Belarus</t>
+  </si>
+  <si>
     <t>Malaysia</t>
   </si>
   <si>
-    <t>Belarus</t>
-  </si>
-  <si>
     <t>Pakistan</t>
   </si>
   <si>
@@ -251,15 +251,15 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
     <t>Kenya</t>
   </si>
   <si>
     <t>Jordan</t>
   </si>
   <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
     <t>Kuwait</t>
   </si>
   <si>
@@ -305,30 +305,30 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>Oman</t>
+  </si>
+  <si>
     <t>Peru</t>
   </si>
   <si>
-    <t>Oman</t>
+    <t>Sri Lanka</t>
   </si>
   <si>
     <t>Costa Rica</t>
   </si>
   <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
     <t>Tanzania</t>
   </si>
   <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
     <t>Cameroon</t>
   </si>
   <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
     <t>Cyprus</t>
   </si>
   <si>
@@ -383,21 +383,21 @@
     <t>Qatar</t>
   </si>
   <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
     <t>Papua New Guinea</t>
   </si>
   <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
+    <t>Iraq</t>
   </si>
   <si>
     <t>Bahrain</t>
   </si>
   <si>
-    <t>Iraq</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -425,18 +425,18 @@
     <t>Gambia</t>
   </si>
   <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
     <t>Namibia</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Yemen</t>
   </si>
   <si>
     <t>Barbados</t>
   </si>
   <si>
-    <t>Yemen</t>
-  </si>
-  <si>
     <t>Mali</t>
   </si>
   <si>
@@ -479,12 +479,12 @@
     <t>Niger</t>
   </si>
   <si>
+    <t>Albania</t>
+  </si>
+  <si>
     <t>Bermuda</t>
   </si>
   <si>
-    <t>Albania</t>
-  </si>
-  <si>
     <t>Guam</t>
   </si>
   <si>
@@ -524,33 +524,33 @@
     <t>French Guiana</t>
   </si>
   <si>
+    <t>Guyana</t>
+  </si>
+  <si>
     <t>Honduras</t>
   </si>
   <si>
-    <t>Guyana</t>
-  </si>
-  <si>
     <t>Mauritania</t>
   </si>
   <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
     <t>Greenland</t>
   </si>
   <si>
-    <t>Swaziland</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>Lesotho</t>
   </si>
   <si>
-    <t>Eritrea</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Angola</t>
-  </si>
-  <si>
     <t>Netherlands Antilles</t>
   </si>
   <si>
@@ -560,15 +560,15 @@
     <t>Central African Republic</t>
   </si>
   <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Haïti</t>
+  </si>
+  <si>
     <t>Martinique</t>
   </si>
   <si>
-    <t>Reunion</t>
-  </si>
-  <si>
-    <t>Haïti</t>
-  </si>
-  <si>
     <t>Sierra Leone</t>
   </si>
   <si>
@@ -578,21 +578,21 @@
     <t>Virgin Islands (U.S.)</t>
   </si>
   <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
     <t>Suriname</t>
   </si>
   <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
     <t>Faroe Islands</t>
   </si>
   <si>
@@ -602,15 +602,15 @@
     <t>Guinea-Bissau</t>
   </si>
   <si>
+    <t>Burundi</t>
+  </si>
+  <si>
     <t>Dominica</t>
   </si>
   <si>
     <t>Democratic Republic Congo</t>
   </si>
   <si>
-    <t>Burundi</t>
-  </si>
-  <si>
     <t>Seychelles</t>
   </si>
   <si>
@@ -620,21 +620,21 @@
     <t>Solomon Islands</t>
   </si>
   <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
     <t>Falkland Islands (Malvinas)</t>
   </si>
   <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
+    <t>Andorra</t>
   </si>
   <si>
     <t>Grenada</t>
   </si>
   <si>
-    <t>Andorra</t>
-  </si>
-  <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
@@ -644,85 +644,85 @@
     <t>Marshall Islands</t>
   </si>
   <si>
+    <t>Federated States of Micronesia</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
-    <t>San Marino</t>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
   </si>
   <si>
     <t>American Samoa</t>
   </si>
   <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Federated States of Micronesia</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>United States Minor Outlying Islands</t>
+    <t>Tonga</t>
   </si>
   <si>
     <t>Comoros</t>
   </si>
   <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
     <t>Aruba</t>
   </si>
   <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
+    <t>Saint Kitts and Nevis</t>
   </si>
   <si>
     <t>British Indian Ocean Territory</t>
   </si>
   <si>
+    <t>Nauru</t>
+  </si>
+  <si>
     <t>Turks and Caicos Islands</t>
   </si>
   <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Kiribati</t>
   </si>
   <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>French Southern Territories</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
     <t>Tuvalu</t>
   </si>
   <si>
     <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
   </si>
 </sst>
 </file>
@@ -866,22 +866,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>373866</v>
+        <v>375232</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>354483</v>
+        <v>356384</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>19294238</v>
+        <v>20969555</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>8351772</v>
+        <v>8870659</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>51.61</v>
+        <v>55.88</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -895,22 +895,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>103612</v>
+        <v>104061</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>101538</v>
+        <v>102137</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2858319</v>
+        <v>3061499</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>699905</v>
+        <v>724616</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>27.59</v>
+        <v>29.42</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -924,22 +924,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>102184</v>
+        <v>102606</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>93642</v>
+        <v>94162</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>4446012</v>
+        <v>4826245</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>924058</v>
+        <v>973339</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>43.51</v>
+        <v>47.04</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -953,22 +953,22 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>92559</v>
+        <v>92996</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>89292</v>
+        <v>89849</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>3439410</v>
+        <v>3695041</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>755327</v>
+        <v>787023</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>37.16</v>
+        <v>39.73</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -982,22 +982,22 @@
         <v>12</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>65620</v>
+        <v>65539</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>65311</v>
+        <v>65276</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>867515</v>
+        <v>934598</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>431904</v>
+        <v>463127</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>13.22</v>
+        <v>14.26</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1011,22 +1011,22 @@
         <v>14</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>64998</v>
+        <v>65287</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>62515</v>
+        <v>62893</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2385999</v>
+        <v>2571189</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>451540</v>
+        <v>469941</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>36.71</v>
+        <v>39.38</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1040,22 +1040,22 @@
         <v>14</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>46241</v>
+        <v>46316</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>44369</v>
+        <v>44525</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1588847</v>
+        <v>1707087</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>324208</v>
+        <v>339679</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>34.36</v>
+        <v>36.86</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1069,22 +1069,22 @@
         <v>10</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>44941</v>
+        <v>45124</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>42829</v>
+        <v>43047</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2111644</v>
+        <v>2296239</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>338953</v>
+        <v>355901</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>46.99</v>
+        <v>50.89</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1098,22 +1098,22 @@
         <v>21</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>36600</v>
+        <v>36670</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>36347</v>
+        <v>36440</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>434419</v>
+        <v>468422</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>127041</v>
+        <v>134126</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>11.87</v>
+        <v>12.77</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1127,22 +1127,22 @@
         <v>14</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>33086</v>
+        <v>33095</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>31454</v>
+        <v>31521</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1059708</v>
+        <v>1138782</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>221436</v>
+        <v>230270</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>32.03</v>
+        <v>34.41</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1156,22 +1156,22 @@
         <v>24</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>31766</v>
+        <v>31840</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>29873</v>
+        <v>29994</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1315423</v>
+        <v>1435759</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>240763</v>
+        <v>253938</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>41.41</v>
+        <v>45.09</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1185,22 +1185,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>26662</v>
+        <v>26646</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>25822</v>
+        <v>25849</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>553547</v>
+        <v>604859</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>184642</v>
+        <v>201952</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>20.76</v>
+        <v>22.7</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1214,22 +1214,22 @@
         <v>14</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>25640</v>
+        <v>25698</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>24532</v>
+        <v>24607</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1325617</v>
+        <v>1438143</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>170562</v>
+        <v>177313</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>51.7</v>
+        <v>55.96</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1243,22 +1243,22 @@
         <v>12</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>21238</v>
+        <v>21312</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>20922</v>
+        <v>21027</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>550184</v>
+        <v>592588</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>93746</v>
+        <v>96969</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>25.91</v>
+        <v>27.81</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1272,22 +1272,22 @@
         <v>14</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>19834</v>
+        <v>19883</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>19304</v>
+        <v>19382</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>980024</v>
+        <v>1058090</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>122901</v>
+        <v>127322</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>49.41</v>
+        <v>53.22</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1301,22 +1301,22 @@
         <v>14</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>17960</v>
+        <v>18005</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>17253</v>
+        <v>17329</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>942664</v>
+        <v>1011646</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>101353</v>
+        <v>104767</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>52.49</v>
+        <v>56.19</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1330,22 +1330,22 @@
         <v>31</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>16603</v>
+        <v>16675</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>16331</v>
+        <v>16426</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>407278</v>
+        <v>441667</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>128116</v>
+        <v>135489</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>24.53</v>
+        <v>26.49</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1359,22 +1359,22 @@
         <v>21</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>16483</v>
+        <v>16520</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>16253</v>
+        <v>16294</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>308363</v>
+        <v>330656</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>69921</v>
+        <v>72465</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>18.71</v>
+        <v>20.02</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1388,22 +1388,22 @@
         <v>12</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>15391</v>
+        <v>15445</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>15132</v>
+        <v>15205</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>386362</v>
+        <v>414142</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>66761</v>
+        <v>68385</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>25.1</v>
+        <v>26.81</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1417,22 +1417,22 @@
         <v>14</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>13970</v>
+        <v>14020</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>13448</v>
+        <v>13507</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>568150</v>
+        <v>610590</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>64714</v>
+        <v>66641</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>40.67</v>
+        <v>43.55</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1446,22 +1446,22 @@
         <v>36</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>12540</v>
+        <v>12567</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>12060</v>
+        <v>12114</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>578172</v>
+        <v>626218</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>63397</v>
+        <v>65992</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>46.11</v>
+        <v>49.83</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1475,22 +1475,22 @@
         <v>14</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>10152</v>
+        <v>10186</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>9893</v>
+        <v>9878</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>444951</v>
+        <v>596584</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>56997</v>
+        <v>63422</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>43.83</v>
+        <v>58.57</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>756</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1504,22 +1504,22 @@
         <v>14</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>10146</v>
+        <v>10186</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>9818</v>
+        <v>9937</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>547186</v>
+        <v>479646</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>60944</v>
+        <v>59013</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>53.93</v>
+        <v>47.09</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>900</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1533,22 +1533,22 @@
         <v>14</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>10026</v>
+        <v>10095</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>9587</v>
+        <v>9636</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>385855</v>
+        <v>415091</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>40818</v>
+        <v>42263</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>38.49</v>
+        <v>41.12</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1562,22 +1562,22 @@
         <v>36</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>9969</v>
+        <v>9971</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>9473</v>
+        <v>9491</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>218462</v>
+        <v>238524</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>48471</v>
+        <v>51316</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>21.91</v>
+        <v>23.92</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1591,22 +1591,22 @@
         <v>12</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>8549</v>
+        <v>8571</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>8264</v>
+        <v>8298</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>310441</v>
+        <v>339166</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>35649</v>
+        <v>36700</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>36.31</v>
+        <v>39.57</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1620,22 +1620,22 @@
         <v>21</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>7768</v>
+        <v>7794</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>7718</v>
+        <v>7747</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>60122</v>
+        <v>64722</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>16923</v>
+        <v>17969</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>7.74</v>
+        <v>8.3</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1649,22 +1649,22 @@
         <v>14</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>7395</v>
+        <v>7414</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>7147</v>
+        <v>7170</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>224684</v>
+        <v>243165</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>31758</v>
+        <v>33165</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>30.38</v>
+        <v>32.8</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1678,22 +1678,22 @@
         <v>21</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>7362</v>
+        <v>7384</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>7258</v>
+        <v>7287</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>138603</v>
+        <v>148188</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>28747</v>
+        <v>29556</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>18.83</v>
+        <v>20.07</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1707,22 +1707,22 @@
         <v>31</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>7121</v>
+        <v>7152</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>6969</v>
+        <v>7009</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>178503</v>
+        <v>193221</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>34385</v>
+        <v>36394</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>25.07</v>
+        <v>27.02</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1736,22 +1736,22 @@
         <v>14</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>7053</v>
+        <v>7061</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>6817</v>
+        <v>6839</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>329541</v>
+        <v>361973</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>40537</v>
+        <v>42405</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>46.72</v>
+        <v>51.26</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1765,22 +1765,22 @@
         <v>12</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>6210</v>
+        <v>6232</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>6099</v>
+        <v>6125</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>195262</v>
+        <v>212038</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>18304</v>
+        <v>18908</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>31.44</v>
+        <v>34.02</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1794,22 +1794,22 @@
         <v>24</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>6113</v>
+        <v>6118</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>5834</v>
+        <v>5853</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>232287</v>
+        <v>254893</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>31324</v>
+        <v>33000</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>38</v>
+        <v>41.66</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>633</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1823,22 +1823,22 @@
         <v>21</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>5896</v>
+        <v>5907</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>5777</v>
+        <v>5797</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>154814</v>
+        <v>166562</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>20425</v>
+        <v>21188</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>26.26</v>
+        <v>28.2</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1852,22 +1852,22 @@
         <v>31</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>5785</v>
+        <v>5802</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>5647</v>
+        <v>5678</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>151382</v>
+        <v>164268</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>27949</v>
+        <v>29561</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>26.17</v>
+        <v>28.31</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1881,22 +1881,22 @@
         <v>52</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>5558</v>
+        <v>5626</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>5256</v>
+        <v>5326</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>148036</v>
+        <v>162451</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>29178</v>
+        <v>31467</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>26.63</v>
+        <v>28.88</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1910,22 +1910,22 @@
         <v>14</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>5060</v>
+        <v>5069</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>4950</v>
+        <v>4969</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>161020</v>
+        <v>173580</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>26410</v>
+        <v>27555</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>31.82</v>
+        <v>34.24</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1939,22 +1939,22 @@
         <v>14</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>3974</v>
+        <v>3997</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>3720</v>
+        <v>3747</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>182043</v>
+        <v>200502</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>13257</v>
+        <v>13728</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>45.81</v>
+        <v>50.16</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -1968,22 +1968,22 @@
         <v>56</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>3543</v>
+        <v>3565</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>3506</v>
+        <v>3534</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>63410</v>
+        <v>69647</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>12331</v>
+        <v>13285</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>17.9</v>
+        <v>19.54</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -1997,22 +1997,22 @@
         <v>21</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>3168</v>
+        <v>3175</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>3146</v>
+        <v>3154</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>42204</v>
+        <v>45358</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>8141</v>
+        <v>8410</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>13.32</v>
+        <v>14.29</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2026,22 +2026,22 @@
         <v>21</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>2714</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>47795</v>
+        <v>51152</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>7894</v>
+        <v>8100</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>17.3</v>
+        <v>18.54</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2055,22 +2055,22 @@
         <v>31</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>2427</v>
+        <v>2424</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>2378</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>81628</v>
+        <v>88159</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>13629</v>
+        <v>14377</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>33.63</v>
+        <v>36.37</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2084,22 +2084,22 @@
         <v>12</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>2374</v>
+        <v>2407</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>2331</v>
+        <v>2371</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>56029</v>
+        <v>61823</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>8273</v>
+        <v>8838</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>23.6</v>
+        <v>25.68</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2113,22 +2113,22 @@
         <v>21</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>2340</v>
+        <v>2373</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>2309</v>
+        <v>2342</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>31831</v>
+        <v>34247</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>6490</v>
+        <v>6850</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>13.6</v>
+        <v>14.43</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2142,22 +2142,22 @@
         <v>21</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>2229</v>
+        <v>2234</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>2191</v>
+        <v>2196</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>47884</v>
+        <v>51806</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>7515</v>
+        <v>7787</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>21.48</v>
+        <v>23.19</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2174,19 +2174,19 @@
         <v>2229</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>2187</v>
+        <v>2190</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>38044</v>
+        <v>41282</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>5278</v>
+        <v>5529</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>17.07</v>
+        <v>18.52</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2203,19 +2203,19 @@
         <v>2225</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>47166</v>
+        <v>50848</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>15894</v>
+        <v>16508</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>21.2</v>
+        <v>22.85</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2229,22 +2229,22 @@
         <v>36</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1935</v>
+        <v>1942</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>37850</v>
+        <v>41980</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>5169</v>
+        <v>5706</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>18.89</v>
+        <v>20.9</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2255,25 +2255,25 @@
         <v>66</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>1567</v>
+        <v>1576</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1534</v>
+        <v>1572</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>37896</v>
+        <v>22504</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>6691</v>
+        <v>2600</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>24.18</v>
+        <v>14.28</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>415</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2284,25 +2284,25 @@
         <v>67</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1563</v>
+        <v>1572</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1558</v>
+        <v>1540</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>21033</v>
+        <v>41992</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>2528</v>
+        <v>7183</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>13.46</v>
+        <v>26.71</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>213</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2316,22 +2316,22 @@
         <v>12</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1413</v>
+        <v>1417</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>21135</v>
+        <v>23284</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>4651</v>
+        <v>4983</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>14.19</v>
+        <v>15.62</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2345,22 +2345,22 @@
         <v>31</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>30675</v>
+        <v>33379</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>3601</v>
+        <v>3707</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>21.13</v>
+        <v>23</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2374,22 +2374,22 @@
         <v>31</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>20958</v>
+        <v>22683</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>3621</v>
+        <v>3694</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>14.97</v>
+        <v>16.21</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2403,22 +2403,22 @@
         <v>52</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>22943</v>
+        <v>25189</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>4352</v>
+        <v>4935</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>16.78</v>
+        <v>18.49</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2432,22 +2432,22 @@
         <v>52</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>21440</v>
+        <v>23702</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>4559</v>
+        <v>4921</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>16.42</v>
+        <v>18.13</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2461,22 +2461,22 @@
         <v>52</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>19691</v>
+        <v>21621</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>3829</v>
+        <v>4037</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>19.06</v>
+        <v>20.87</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2490,22 +2490,22 @@
         <v>21</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>13525</v>
+        <v>14817</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>2072</v>
+        <v>2211</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>13.69</v>
+        <v>14.95</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2519,22 +2519,22 @@
         <v>31</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>21659</v>
+        <v>23574</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>3006</v>
+        <v>3158</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>25.21</v>
+        <v>27.35</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2548,22 +2548,22 @@
         <v>21</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>12869</v>
+        <v>13684</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>2492</v>
+        <v>2583</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>15.16</v>
+        <v>15.89</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2577,22 +2577,22 @@
         <v>21</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>21642</v>
+        <v>23205</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>3373</v>
+        <v>3507</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>29.57</v>
+        <v>31.66</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2603,25 +2603,25 @@
         <v>78</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>24835</v>
+        <v>22488</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>3500</v>
+        <v>2493</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>36.2</v>
+        <v>32.36</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2632,25 +2632,25 @@
         <v>79</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>14051</v>
+        <v>27040</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>1450</v>
+        <v>3752</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>20.57</v>
+        <v>39.36</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>219</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2661,25 +2661,25 @@
         <v>80</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>20295</v>
+        <v>15601</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>2188</v>
+        <v>1564</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>29.93</v>
+        <v>22.78</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>284</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2693,22 +2693,22 @@
         <v>36</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>13460</v>
+        <v>14847</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>1287</v>
+        <v>1336</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>20.24</v>
+        <v>22.26</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2722,22 +2722,22 @@
         <v>52</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>11932</v>
+        <v>12576</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>1989</v>
+        <v>2094</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>18.41</v>
+        <v>19.35</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2751,22 +2751,22 @@
         <v>12</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>12924</v>
+        <v>14360</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>1746</v>
+        <v>1920</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>20.58</v>
+        <v>22.61</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2780,22 +2780,22 @@
         <v>36</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>13342</v>
+        <v>14488</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>1142</v>
+        <v>1180</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>23.37</v>
+        <v>25.24</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2809,22 +2809,22 @@
         <v>36</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>11493</v>
+        <v>12632</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>938</v>
+        <v>1004</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>20.13</v>
+        <v>22.16</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2838,22 +2838,22 @@
         <v>12</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>482</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>15810</v>
+        <v>17693</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>1376</v>
+        <v>1528</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>32</v>
+        <v>35.89</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2867,22 +2867,22 @@
         <v>21</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>13408</v>
+        <v>14765</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>885</v>
+        <v>935</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>27.88</v>
+        <v>30.51</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2896,22 +2896,22 @@
         <v>12</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>3987</v>
+        <v>4400</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>692</v>
+        <v>797</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>8.34</v>
+        <v>9.17</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2925,22 +2925,22 @@
         <v>21</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>8292</v>
+        <v>8828</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>1611</v>
+        <v>1669</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>17.53</v>
+        <v>18.47</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2954,22 +2954,22 @@
         <v>21</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>7809</v>
+        <v>8393</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>1180</v>
+        <v>1249</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>17.2</v>
+        <v>18.37</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -2983,22 +2983,22 @@
         <v>31</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>15263</v>
+        <v>16525</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>1060</v>
+        <v>1097</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>33.62</v>
+        <v>36.24</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3018,16 +3018,16 @@
         <v>428</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>15642</v>
+        <v>17137</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>1745</v>
+        <v>1875</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>36.12</v>
+        <v>39.58</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3041,22 +3041,22 @@
         <v>14</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>22275</v>
+        <v>24490</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>2071</v>
+        <v>2220</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>54.33</v>
+        <v>59.3</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3070,22 +3070,22 @@
         <v>31</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>11472</v>
+        <v>12296</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>1505</v>
+        <v>1573</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>30.84</v>
+        <v>33.32</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3099,22 +3099,22 @@
         <v>52</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>10623</v>
+        <v>11720</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>587</v>
+        <v>638</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>31.34</v>
+        <v>34.37</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3125,25 +3125,25 @@
         <v>96</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>10543</v>
+        <v>7354</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>1022</v>
+        <v>704</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>31.38</v>
+        <v>21.82</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>288</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3154,25 +3154,25 @@
         <v>97</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>6680</v>
+        <v>11471</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>674</v>
+        <v>1094</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>19.88</v>
+        <v>34.04</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>176</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3183,25 +3183,25 @@
         <v>98</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>287</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>11368</v>
+        <v>7493</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>1294</v>
+        <v>656</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>39.61</v>
+        <v>26.11</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>214</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3212,25 +3212,25 @@
         <v>99</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>286</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>6776</v>
+        <v>12417</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>611</v>
+        <v>1366</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>23.69</v>
+        <v>43.42</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3244,22 +3244,22 @@
         <v>52</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>256</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>7757</v>
+        <v>8708</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1606</v>
+        <v>1889</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>29.72</v>
+        <v>33.49</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3273,22 +3273,22 @@
         <v>52</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>9121</v>
+        <v>9865</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>1229</v>
+        <v>1305</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>35.63</v>
+        <v>38.24</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3299,25 +3299,25 @@
         <v>102</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>247</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>6499</v>
+        <v>4517</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>1415</v>
+        <v>523</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3328,25 +3328,25 @@
         <v>103</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>4108</v>
+        <v>7132</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>467</v>
+        <v>1598</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>16.56</v>
+        <v>28.53</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>138</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3360,22 +3360,22 @@
         <v>14</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>5966</v>
+        <v>6384</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>635</v>
+        <v>663</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>25.39</v>
+        <v>27.28</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3389,22 +3389,22 @@
         <v>52</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>10526</v>
+        <v>11413</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>1310</v>
+        <v>1387</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>45.97</v>
+        <v>49.62</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3424,16 +3424,16 @@
         <v>223</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>2762</v>
+        <v>2899</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>12.39</v>
+        <v>13</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3447,22 +3447,22 @@
         <v>52</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>5808</v>
+        <v>6270</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>531</v>
+        <v>574</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>26.52</v>
+        <v>28.5</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3476,22 +3476,22 @@
         <v>52</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>6266</v>
+        <v>6874</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>830</v>
+        <v>935</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>28.88</v>
+        <v>31.53</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3511,16 +3511,16 @@
         <v>208</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>4331</v>
+        <v>4634</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>20.14</v>
+        <v>21.55</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3537,19 +3537,19 @@
         <v>212</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>7242</v>
+        <v>8189</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>649</v>
+        <v>715</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>34.16</v>
+        <v>38.63</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3569,16 +3569,16 @@
         <v>195</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>4152</v>
+        <v>4486</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>20.16</v>
+        <v>21.78</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3592,22 +3592,22 @@
         <v>21</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>196</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>1117</v>
+        <v>1217</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>5.67</v>
+        <v>6.21</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3627,16 +3627,16 @@
         <v>149</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>3124</v>
+        <v>3401</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>19.17</v>
+        <v>20.87</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3656,16 +3656,16 @@
         <v>154</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>2580</v>
+        <v>2989</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>16.75</v>
+        <v>19.41</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3679,22 +3679,22 @@
         <v>52</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>4033</v>
+        <v>4311</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>29.44</v>
+        <v>31.7</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3708,22 +3708,22 @@
         <v>31</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>5379</v>
+        <v>5892</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>711</v>
+        <v>761</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>40.75</v>
+        <v>44.3</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3743,16 +3743,16 @@
         <v>127</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>3058</v>
+        <v>3307</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>23.52</v>
+        <v>25.44</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3769,19 +3769,19 @@
         <v>129</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>3382</v>
+        <v>3698</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>26.22</v>
+        <v>28.67</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3801,16 +3801,16 @@
         <v>122</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>4607</v>
+        <v>4890</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>35.99</v>
+        <v>38.2</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3830,16 +3830,16 @@
         <v>116</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>10096</v>
+        <v>10969</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>874</v>
+        <v>925</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>85.56</v>
+        <v>92.96</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3853,22 +3853,22 @@
         <v>36</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>1318</v>
+        <v>1450</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>11.26</v>
+        <v>12.29</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3879,25 +3879,25 @@
         <v>122</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>111</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>3219</v>
+        <v>4201</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>227</v>
+        <v>375</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>29</v>
+        <v>37.85</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>112</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3914,19 +3914,19 @@
         <v>110</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>3898</v>
+        <v>3744</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>35.44</v>
+        <v>34.04</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3937,25 +3937,25 @@
         <v>124</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D108" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="E108" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="E108" s="0" t="n">
-        <v>105</v>
-      </c>
       <c r="F108" s="0" t="n">
-        <v>3450</v>
+        <v>3478</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>410</v>
+        <v>236</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>31.65</v>
+        <v>31.62</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -3969,22 +3969,22 @@
         <v>36</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>1829</v>
+        <v>1527</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>17.09</v>
+        <v>14.14</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>117</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4004,16 +4004,16 @@
         <v>103</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>1364</v>
+        <v>2062</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>12.75</v>
+        <v>19.27</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>155</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4033,16 +4033,16 @@
         <v>100</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>2015</v>
+        <v>2160</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>19.19</v>
+        <v>20.57</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4056,22 +4056,22 @@
         <v>52</v>
       </c>
       <c r="D112" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E112" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="E112" s="0" t="n">
-        <v>98</v>
-      </c>
       <c r="F112" s="0" t="n">
-        <v>2695</v>
+        <v>2959</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>27.22</v>
+        <v>29.59</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4091,16 +4091,16 @@
         <v>92</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>2816</v>
+        <v>3063</v>
       </c>
       <c r="G113" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="H113" s="0" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="I113" s="0" t="n">
         <v>169</v>
-      </c>
-      <c r="H113" s="0" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="I113" s="0" t="n">
-        <v>151</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4114,22 +4114,22 @@
         <v>21</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>980</v>
+        <v>1060</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>10.77</v>
+        <v>11.52</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4143,22 +4143,22 @@
         <v>14</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>80</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>2481</v>
+        <v>2684</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>29.54</v>
+        <v>31.58</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4172,22 +4172,22 @@
         <v>52</v>
       </c>
       <c r="D116" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E116" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="E116" s="0" t="n">
-        <v>78</v>
-      </c>
       <c r="F116" s="0" t="n">
-        <v>1760</v>
+        <v>1929</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>22.28</v>
+        <v>24.11</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4201,22 +4201,22 @@
         <v>36</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>1986</v>
+        <v>2119</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>25.79</v>
+        <v>27.17</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4230,22 +4230,22 @@
         <v>52</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>759</v>
+        <v>827</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>10.4</v>
+        <v>11.18</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4265,16 +4265,16 @@
         <v>67</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>3825</v>
+        <v>4132</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>53.13</v>
+        <v>57.39</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4291,19 +4291,19 @@
         <v>70</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>1798</v>
+        <v>1304</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>256</v>
+        <v>75</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>25.69</v>
+        <v>18.63</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4317,22 +4317,22 @@
         <v>52</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>1215</v>
+        <v>1993</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>72</v>
+        <v>270</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>17.36</v>
+        <v>28.88</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4343,25 +4343,25 @@
         <v>138</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>1785</v>
+        <v>1591</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>26.25</v>
+        <v>23.06</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4372,25 +4372,25 @@
         <v>139</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>64</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>1466</v>
+        <v>2037</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>21.88</v>
+        <v>29.96</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4410,16 +4410,16 @@
         <v>60</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>2703</v>
+        <v>2900</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>45.05</v>
+        <v>48.33</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4439,16 +4439,16 @@
         <v>58</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>2694</v>
+        <v>2957</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>45.66</v>
+        <v>50.12</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4468,16 +4468,16 @@
         <v>56</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>1836</v>
+        <v>2038</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>31.12</v>
+        <v>34.54</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4491,22 +4491,22 @@
         <v>52</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>1238</v>
+        <v>1378</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>21.72</v>
+        <v>23.76</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4526,16 +4526,16 @@
         <v>55</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>1822</v>
+        <v>1962</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>31.96</v>
+        <v>34.42</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4555,16 +4555,16 @@
         <v>56</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>1676</v>
+        <v>1840</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>29.93</v>
+        <v>32.86</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4584,16 +4584,16 @@
         <v>52</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>1774</v>
+        <v>1908</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>32.85</v>
+        <v>35.33</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4607,22 +4607,22 @@
         <v>14</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>2518</v>
+        <v>2726</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>49.37</v>
+        <v>52.42</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4636,22 +4636,22 @@
         <v>12</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>48</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>1298</v>
+        <v>1402</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>25.45</v>
+        <v>28.04</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4665,22 +4665,22 @@
         <v>12</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>692</v>
+        <v>715</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>14.72</v>
+        <v>15.54</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4700,16 +4700,16 @@
         <v>43</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>1431</v>
+        <v>1578</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>32.52</v>
+        <v>35.86</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4729,16 +4729,16 @@
         <v>38</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>840</v>
+        <v>914</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>20</v>
+        <v>21.76</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4758,16 +4758,16 @@
         <v>39</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>591</v>
+        <v>647</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>14.41</v>
+        <v>15.78</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4787,16 +4787,16 @@
         <v>39</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>617</v>
+        <v>673</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>15.43</v>
+        <v>16.83</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4807,25 +4807,25 @@
         <v>154</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>39</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>2724</v>
+        <v>552</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>308</v>
+        <v>98</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>69.85</v>
+        <v>14.15</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4836,25 +4836,25 @@
         <v>155</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>499</v>
+        <v>2908</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>90</v>
+        <v>325</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>13.13</v>
+        <v>74.56</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4868,22 +4868,22 @@
         <v>24</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>36</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>1442</v>
+        <v>1557</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>37.95</v>
+        <v>42.08</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4903,16 +4903,16 @@
         <v>37</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>802</v>
+        <v>853</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>21.68</v>
+        <v>23.05</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4932,16 +4932,16 @@
         <v>35</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>609</v>
+        <v>656</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>17.4</v>
+        <v>18.74</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4961,16 +4961,16 @@
         <v>33</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>1638</v>
+        <v>1821</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>48.18</v>
+        <v>53.56</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -4990,16 +4990,16 @@
         <v>30</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>1128</v>
+        <v>1228</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>35.25</v>
+        <v>38.38</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5019,16 +5019,16 @@
         <v>31</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>1038</v>
+        <v>1134</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>33.48</v>
+        <v>36.58</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5048,16 +5048,16 @@
         <v>27</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>964</v>
+        <v>1037</v>
       </c>
       <c r="G146" s="0" t="n">
         <v>67</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>34.43</v>
+        <v>37.04</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5077,16 +5077,16 @@
         <v>26</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="G147" s="0" t="n">
         <v>13</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>15.81</v>
+        <v>17.65</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5106,16 +5106,16 @@
         <v>26</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>1073</v>
+        <v>1178</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>41.27</v>
+        <v>45.31</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5135,16 +5135,16 @@
         <v>25</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>528</v>
+        <v>577</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>21.12</v>
+        <v>23.08</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5164,16 +5164,16 @@
         <v>23</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>1026</v>
+        <v>1107</v>
       </c>
       <c r="G150" s="0" t="n">
         <v>38</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>42.75</v>
+        <v>46.13</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5193,16 +5193,16 @@
         <v>23</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>792</v>
+        <v>880</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>34.43</v>
+        <v>38.26</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5222,16 +5222,16 @@
         <v>21</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>681</v>
+        <v>740</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>32.43</v>
+        <v>35.24</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5248,19 +5248,19 @@
         <v>20</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>608</v>
+        <v>949</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>30.4</v>
+        <v>47.45</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5277,19 +5277,19 @@
         <v>20</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>879</v>
+        <v>658</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>43.95</v>
+        <v>32.9</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5309,16 +5309,16 @@
         <v>19</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>18.53</v>
+        <v>19.84</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5329,25 +5329,25 @@
         <v>172</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>432</v>
+        <v>290</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>25.41</v>
+        <v>17.06</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5358,7 +5358,7 @@
         <v>173</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>17</v>
@@ -5367,16 +5367,16 @@
         <v>16</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>215</v>
+        <v>486</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>12.65</v>
+        <v>28.59</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5393,19 +5393,19 @@
         <v>17</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>11.88</v>
+        <v>15.29</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>46</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5422,19 +5422,19 @@
         <v>17</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>14.94</v>
+        <v>12.71</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5445,25 +5445,25 @@
         <v>176</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>712</v>
+        <v>289</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>44.5</v>
+        <v>17</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>103</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5474,7 +5474,7 @@
         <v>177</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>16</v>
@@ -5483,16 +5483,16 @@
         <v>16</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>255</v>
+        <v>768</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>15.94</v>
+        <v>48</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>56</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5512,16 +5512,16 @@
         <v>11</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="G162" s="0" t="n">
         <v>8</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>33.13</v>
+        <v>35.53</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5541,16 +5541,16 @@
         <v>15</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>30.4</v>
+        <v>32</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5570,16 +5570,16 @@
         <v>14</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>21.36</v>
+        <v>23</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5590,7 +5590,7 @@
         <v>181</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>13</v>
@@ -5599,16 +5599,16 @@
         <v>13</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>15.38</v>
+        <v>19.08</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5619,25 +5619,25 @@
         <v>182</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>228</v>
+        <v>690</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>17.54</v>
+        <v>53.08</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5654,19 +5654,19 @@
         <v>13</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>656</v>
+        <v>220</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>50.46</v>
+        <v>16.92</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5686,16 +5686,16 @@
         <v>12</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>7.33</v>
+        <v>8.17</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5715,16 +5715,16 @@
         <v>12</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="G169" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>35.67</v>
+        <v>39.17</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5744,16 +5744,16 @@
         <v>12</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>17.08</v>
+        <v>20</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5773,16 +5773,16 @@
         <v>11</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>29.18</v>
+        <v>33.09</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5793,7 +5793,7 @@
         <v>188</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>11</v>
@@ -5802,16 +5802,16 @@
         <v>11</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>109</v>
+        <v>735</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>9.91</v>
+        <v>66.82</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5822,7 +5822,7 @@
         <v>189</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>11</v>
@@ -5831,16 +5831,16 @@
         <v>11</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>660</v>
+        <v>122</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>60</v>
+        <v>11.09</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5851,7 +5851,7 @@
         <v>190</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>11</v>
@@ -5860,16 +5860,16 @@
         <v>11</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>24.36</v>
+        <v>31.27</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>107</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5880,7 +5880,7 @@
         <v>191</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>11</v>
@@ -5889,16 +5889,16 @@
         <v>11</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>31.27</v>
+        <v>26.36</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>61</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5918,16 +5918,16 @@
         <v>10</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>791</v>
+        <v>834</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>79.1</v>
+        <v>83.4</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5947,16 +5947,16 @@
         <v>10</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>16.4</v>
+        <v>18.5</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -5976,16 +5976,16 @@
         <v>8</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>23.22</v>
+        <v>25.22</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -5996,25 +5996,25 @@
         <v>195</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E179" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F179" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="G179" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F179" s="0" t="n">
-        <v>179</v>
-      </c>
-      <c r="G179" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="H179" s="0" t="n">
-        <v>22.38</v>
+        <v>8.5</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6025,25 +6025,25 @@
         <v>196</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>29.5</v>
+        <v>24.13</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6063,16 +6063,16 @@
         <v>7</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>66</v>
+        <v>251</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>8.25</v>
+        <v>31.38</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6092,16 +6092,16 @@
         <v>7</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G182" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>14.5</v>
+        <v>15.38</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6121,16 +6121,16 @@
         <v>7</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>586</v>
+        <v>628</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>83.71</v>
+        <v>89.71</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6150,16 +6150,16 @@
         <v>7</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>661</v>
+        <v>765</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>94.43</v>
+        <v>109.29</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6179,16 +6179,16 @@
         <v>6</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>206</v>
+        <v>61</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>34.33</v>
+        <v>10.17</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6199,25 +6199,25 @@
         <v>202</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E186" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F186" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="G186" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F186" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="G186" s="0" t="n">
-        <v>11</v>
-      </c>
       <c r="H186" s="0" t="n">
-        <v>8.67</v>
+        <v>5.5</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6228,25 +6228,25 @@
         <v>203</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>5</v>
+        <v>37.67</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6257,25 +6257,25 @@
         <v>204</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G188" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>12.4</v>
+        <v>5.6</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6286,25 +6286,25 @@
         <v>205</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="G189" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>5.4</v>
+        <v>12.6</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6324,16 +6324,16 @@
         <v>4</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6353,16 +6353,16 @@
         <v>4</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G191" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>25</v>
+        <v>26.5</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6382,16 +6382,16 @@
         <v>4</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6402,25 +6402,25 @@
         <v>209</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>1</v>
+        <v>31.5</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6440,16 +6440,16 @@
         <v>3</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="G194" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>36.67</v>
+        <v>44.33</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6460,25 +6460,25 @@
         <v>211</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>18</v>
+        <v>29.33</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6498,16 +6498,16 @@
         <v>3</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G196" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>3.33</v>
+        <v>3.67</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6518,25 +6518,25 @@
         <v>213</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>25.33</v>
+        <v>80</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6547,7 +6547,7 @@
         <v>214</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>3</v>
@@ -6556,16 +6556,16 @@
         <v>3</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>38.33</v>
+        <v>1</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6576,7 +6576,7 @@
         <v>215</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>3</v>
@@ -6585,16 +6585,16 @@
         <v>2</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>73.67</v>
+        <v>93.67</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6614,16 +6614,16 @@
         <v>3</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G200" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>52.67</v>
+        <v>53</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6634,25 +6634,25 @@
         <v>217</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E201" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>264</v>
+        <v>75</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>88</v>
+        <v>37.5</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6663,7 +6663,7 @@
         <v>218</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>2</v>
@@ -6672,16 +6672,16 @@
         <v>2</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>37.5</v>
+        <v>28.5</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6692,7 +6692,7 @@
         <v>219</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>2</v>
@@ -6701,16 +6701,16 @@
         <v>2</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>13.5</v>
+        <v>59.5</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6730,16 +6730,16 @@
         <v>2</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="G204" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6750,7 +6750,7 @@
         <v>221</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>2</v>
@@ -6759,16 +6759,16 @@
         <v>2</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>55.5</v>
+        <v>0</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6779,7 +6779,7 @@
         <v>222</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>2</v>
@@ -6788,16 +6788,16 @@
         <v>2</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6817,16 +6817,16 @@
         <v>2</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G207" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>36</v>
+        <v>12.5</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6846,16 +6846,16 @@
         <v>2</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6866,7 +6866,7 @@
         <v>225</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>1</v>
@@ -6875,16 +6875,16 @@
         <v>1</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G209" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6895,7 +6895,7 @@
         <v>226</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>1</v>
@@ -6904,16 +6904,16 @@
         <v>1</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6933,16 +6933,16 @@
         <v>1</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G211" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -6962,16 +6962,16 @@
         <v>1</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -6982,7 +6982,7 @@
         <v>229</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>1</v>
@@ -6991,16 +6991,16 @@
         <v>1</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7011,7 +7011,7 @@
         <v>230</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>1</v>
@@ -7020,16 +7020,16 @@
         <v>1</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G214" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7049,16 +7049,16 @@
         <v>1</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G215" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7069,7 +7069,7 @@
         <v>232</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>1</v>
@@ -7078,16 +7078,16 @@
         <v>1</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G216" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7116,7 +7116,7 @@
         <v>11</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7127,7 +7127,7 @@
         <v>234</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>1</v>
@@ -7136,16 +7136,16 @@
         <v>1</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G218" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
@@ -7156,7 +7156,7 @@
         <v>235</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>1</v>
@@ -7165,16 +7165,16 @@
         <v>1</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G219" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
